--- a/333RestaurantSelectionProject/r.xlsx
+++ b/333RestaurantSelectionProject/r.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C8D5FB1-4C7D-4784-B512-729ACA1F54D3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41BEDBB-3B71-4416-B166-4286E6E9BBA0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23880" windowHeight="6420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -273,7 +273,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="h:mm:ss;@"/>
+    <numFmt numFmtId="164" formatCode="h:mm:ss;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -304,10 +304,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -590,14 +592,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C5" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="24.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" style="3" customWidth="1"/>
     <col min="6" max="6" width="23.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -614,8 +616,8 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1">
-        <v>0.25</v>
+      <c r="E1" s="4">
+        <v>0.45833333333333331</v>
       </c>
       <c r="F1" s="1">
         <v>0.95833333333333337</v>
@@ -634,8 +636,8 @@
       <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1">
-        <v>0.25</v>
+      <c r="E2" s="4">
+        <v>0.45833333333333331</v>
       </c>
       <c r="F2" s="1">
         <v>0.95833333333333337</v>
@@ -654,8 +656,8 @@
       <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="1">
-        <v>0.25</v>
+      <c r="E3" s="4">
+        <v>0.45833333333333331</v>
       </c>
       <c r="F3" s="1">
         <v>0.95833333333333337</v>
@@ -674,8 +676,8 @@
       <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="1">
-        <v>0.25</v>
+      <c r="E4" s="4">
+        <v>0.45833333333333331</v>
       </c>
       <c r="F4" s="1">
         <v>0.95833333333333337</v>
@@ -694,8 +696,8 @@
       <c r="D5" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="1">
-        <v>0.25</v>
+      <c r="E5" s="4">
+        <v>0.45833333333333331</v>
       </c>
       <c r="F5" s="1">
         <v>0.95833333333333337</v>
@@ -714,8 +716,8 @@
       <c r="D6" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="1">
-        <v>0.25</v>
+      <c r="E6" s="4">
+        <v>0.45833333333333331</v>
       </c>
       <c r="F6" s="1">
         <v>0.95833333333333337</v>
@@ -734,8 +736,8 @@
       <c r="D7" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="1">
-        <v>0.25</v>
+      <c r="E7" s="4">
+        <v>0.45833333333333331</v>
       </c>
       <c r="F7" s="1">
         <v>0.95833333333333337</v>
@@ -754,8 +756,8 @@
       <c r="D8" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="1">
-        <v>0.25</v>
+      <c r="E8" s="4">
+        <v>0.45833333333333331</v>
       </c>
       <c r="F8" s="1">
         <v>0.95833333333333337</v>
@@ -774,8 +776,8 @@
       <c r="D9" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="1">
-        <v>0.25</v>
+      <c r="E9" s="4">
+        <v>0.45833333333333331</v>
       </c>
       <c r="F9" s="1">
         <v>0.95833333333333337</v>
@@ -794,8 +796,8 @@
       <c r="D10" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="1">
-        <v>0.25</v>
+      <c r="E10" s="4">
+        <v>0.45833333333333331</v>
       </c>
       <c r="F10" s="1">
         <v>0.95833333333333337</v>
@@ -814,8 +816,8 @@
       <c r="D11" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="1">
-        <v>0.25</v>
+      <c r="E11" s="4">
+        <v>0.45833333333333331</v>
       </c>
       <c r="F11" s="1">
         <v>0.95833333333333337</v>
@@ -834,8 +836,8 @@
       <c r="D12" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="1">
-        <v>0.25</v>
+      <c r="E12" s="4">
+        <v>0.45833333333333331</v>
       </c>
       <c r="F12" s="1">
         <v>0.95833333333333337</v>
@@ -854,8 +856,8 @@
       <c r="D13" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="1">
-        <v>0.25</v>
+      <c r="E13" s="4">
+        <v>0.45833333333333331</v>
       </c>
       <c r="F13" s="1">
         <v>0.95833333333333337</v>
@@ -874,8 +876,8 @@
       <c r="D14" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="1">
-        <v>0.25</v>
+      <c r="E14" s="4">
+        <v>0.45833333333333331</v>
       </c>
       <c r="F14" s="1">
         <v>0.95833333333333337</v>
@@ -894,8 +896,8 @@
       <c r="D15" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="1">
-        <v>0.25</v>
+      <c r="E15" s="4">
+        <v>0.45833333333333331</v>
       </c>
       <c r="F15" s="1">
         <v>0.95833333333333337</v>
@@ -914,7 +916,7 @@
       <c r="D16" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="3">
         <v>0.45833333333333331</v>
       </c>
       <c r="F16" s="1">
@@ -934,7 +936,7 @@
       <c r="D17" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="3">
         <v>0.45833333333333331</v>
       </c>
       <c r="F17" s="1">
@@ -954,7 +956,7 @@
       <c r="D18" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="3">
         <v>0.45833333333333331</v>
       </c>
       <c r="F18" s="1">
@@ -974,7 +976,7 @@
       <c r="D19" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="3">
         <v>0.45833333333333331</v>
       </c>
       <c r="F19" s="1">
@@ -994,7 +996,7 @@
       <c r="D20" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="3">
         <v>0.45833333333333331</v>
       </c>
       <c r="F20" s="1">
@@ -1014,7 +1016,7 @@
       <c r="D21" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="3">
         <v>0.45833333333333331</v>
       </c>
       <c r="F21" s="1">
@@ -1034,7 +1036,7 @@
       <c r="D22" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="3">
         <v>0.45833333333333331</v>
       </c>
       <c r="F22" s="1">
@@ -1054,7 +1056,7 @@
       <c r="D23" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="3">
         <v>0.45833333333333331</v>
       </c>
       <c r="F23" s="1">
@@ -1074,7 +1076,7 @@
       <c r="D24" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="3">
         <v>0.45833333333333331</v>
       </c>
       <c r="F24" s="1">
@@ -1094,7 +1096,7 @@
       <c r="D25" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="3">
         <v>0.45833333333333331</v>
       </c>
       <c r="F25" s="1">
@@ -1114,7 +1116,7 @@
       <c r="D26" t="s">
         <v>33</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="3">
         <v>0.45833333333333331</v>
       </c>
       <c r="F26" s="1">
@@ -1134,7 +1136,7 @@
       <c r="D27" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="3">
         <v>0.45833333333333331</v>
       </c>
       <c r="F27" s="1">
@@ -1154,7 +1156,7 @@
       <c r="D28" t="s">
         <v>58</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="3">
         <v>0.45833333333333331</v>
       </c>
       <c r="F28" s="1">
@@ -1174,7 +1176,7 @@
       <c r="D29" t="s">
         <v>58</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="3">
         <v>0.45833333333333331</v>
       </c>
       <c r="F29" s="1">
@@ -1194,7 +1196,7 @@
       <c r="D30" t="s">
         <v>58</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="3">
         <v>0.45833333333333331</v>
       </c>
       <c r="F30" s="1">
@@ -1214,7 +1216,7 @@
       <c r="D31" t="s">
         <v>58</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="3">
         <v>0.45833333333333331</v>
       </c>
       <c r="F31" s="1">
@@ -1234,7 +1236,7 @@
       <c r="D32" t="s">
         <v>58</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="3">
         <v>0.45833333333333331</v>
       </c>
       <c r="F32" s="1">
@@ -1254,7 +1256,7 @@
       <c r="D33" t="s">
         <v>58</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="3">
         <v>0.45833333333333331</v>
       </c>
       <c r="F33" s="1">
@@ -1274,7 +1276,7 @@
       <c r="D34" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="3">
         <v>0.45833333333333331</v>
       </c>
       <c r="F34" s="1">
@@ -1294,7 +1296,7 @@
       <c r="D35" t="s">
         <v>58</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="3">
         <v>0.45833333333333331</v>
       </c>
       <c r="F35" s="1">
@@ -1314,7 +1316,7 @@
       <c r="D36" t="s">
         <v>75</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="3">
         <v>0.25</v>
       </c>
       <c r="F36" s="1">
@@ -1334,7 +1336,7 @@
       <c r="D37" t="s">
         <v>75</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="3">
         <v>0.25</v>
       </c>
       <c r="F37" s="1">
@@ -1354,7 +1356,7 @@
       <c r="D38" t="s">
         <v>75</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="3">
         <v>0.25</v>
       </c>
       <c r="F38" s="1">
@@ -1374,7 +1376,7 @@
       <c r="D39" t="s">
         <v>75</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="3">
         <v>0.25</v>
       </c>
       <c r="F39" s="1">

--- a/333RestaurantSelectionProject/r.xlsx
+++ b/333RestaurantSelectionProject/r.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41BEDBB-3B71-4416-B166-4286E6E9BBA0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58CCAEA-0D72-4F0D-A68A-6D1A9E3F8DDB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23880" windowHeight="6420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="85">
   <si>
     <t>Arby’s</t>
   </si>
@@ -266,15 +266,21 @@
   </si>
   <si>
     <t>3017 S US Hwy 41, Terre Haute, IN</t>
+  </si>
+  <si>
+    <t>11:00:00.000</t>
+  </si>
+  <si>
+    <t>23:00:00.000</t>
+  </si>
+  <si>
+    <t>20:00:00.000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="h:mm:ss;@"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -304,12 +310,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -593,794 +598,796 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="2" width="9.140625" style="2"/>
     <col min="3" max="3" width="24.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="2"/>
+    <col min="5" max="5" width="19.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="23.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="3">
         <v>8122322051</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="4">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="F1" s="1">
-        <v>0.95833333333333337</v>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>8124467408</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0.95833333333333337</v>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>8122323675</v>
       </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.95833333333333337</v>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>8122349653</v>
       </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.95833333333333337</v>
+      <c r="D4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>8122378846</v>
       </c>
-      <c r="D5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.95833333333333337</v>
+      <c r="D5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>8122345364</v>
       </c>
-      <c r="D6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.95833333333333337</v>
+      <c r="D6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="3">
         <v>8122341458</v>
       </c>
-      <c r="D7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.95833333333333337</v>
+      <c r="D7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="3">
         <v>8122321741</v>
       </c>
-      <c r="D8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.95833333333333337</v>
+      <c r="D8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="3">
         <v>8122342207</v>
       </c>
-      <c r="D9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.95833333333333337</v>
+      <c r="D9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="3">
         <v>8122352850</v>
       </c>
-      <c r="D10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.95833333333333337</v>
+      <c r="D10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="3">
         <v>8122351160</v>
       </c>
-      <c r="D11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0.95833333333333337</v>
+      <c r="D11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="3">
         <v>8124661921</v>
       </c>
-      <c r="D12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.95833333333333337</v>
+      <c r="D12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="3">
         <v>8124666875</v>
       </c>
-      <c r="D13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0.95833333333333337</v>
+      <c r="D13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="3">
         <v>8122324439</v>
       </c>
-      <c r="D14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="4">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0.95833333333333337</v>
+      <c r="D14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="3">
         <v>8122327905</v>
       </c>
-      <c r="D15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0.95833333333333337</v>
+      <c r="D15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="3">
         <v>8122349898</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="3">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0.83333333333333337</v>
+      <c r="E16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="3">
         <v>8122345558</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="3">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0.83333333333333337</v>
+      <c r="E17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="3">
         <v>8122311113</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="3">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0.83333333333333337</v>
+      <c r="E18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="3">
         <v>8122323898</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="3">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0.83333333333333337</v>
+      <c r="E19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="3">
         <v>8122346438</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="3">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0.83333333333333337</v>
+      <c r="E20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="3">
         <v>8122355177</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="3">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0.83333333333333337</v>
+      <c r="E21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="3">
         <v>8122318626</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="3">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0.83333333333333337</v>
+      <c r="E22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="3">
         <v>8122350515</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="3">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0.83333333333333337</v>
+      <c r="E23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="3">
         <v>8122357877</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="3">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0.83333333333333337</v>
+      <c r="E24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="3">
         <v>8122359999</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="3">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0.83333333333333337</v>
+      <c r="E25" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="3">
         <v>8122327874</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E26" s="3">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="F26" s="1">
-        <v>0.83333333333333337</v>
+      <c r="E26" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="3">
         <v>8128144221</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="3">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="F27" s="1">
-        <v>0.83333333333333337</v>
+      <c r="E27" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="3">
         <v>8128143068</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E28" s="3">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="F28" s="1">
-        <v>0.875</v>
+      <c r="E28" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="3">
         <v>8122323939</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E29" s="3">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="F29" s="1">
-        <v>0.875</v>
+      <c r="E29" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="3">
         <v>8122328133</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E30" s="3">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="F30" s="1">
-        <v>0.875</v>
+      <c r="E30" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="3">
         <v>8122327272</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E31" s="3">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="F31" s="1">
-        <v>0.875</v>
+      <c r="E31" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="3">
         <v>8122325253</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E32" s="3">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="F32" s="1">
-        <v>0.875</v>
+      <c r="E32" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="3">
         <v>8128770846</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E33" s="3">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="F33" s="1">
-        <v>0.875</v>
+      <c r="E33" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="3">
         <v>8122358575</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="3">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="F34" s="1">
-        <v>0.875</v>
+      <c r="E34" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="3">
         <v>8122323462</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E35" s="3">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="F35" s="1">
-        <v>0.875</v>
+      <c r="E35" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="3">
         <v>8128144099</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E36" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="F36" s="1">
-        <v>0.83333333333333337</v>
+      <c r="E36" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="3">
         <v>8122345282</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E37" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="F37" s="1">
-        <v>0.83333333333333337</v>
+      <c r="E37" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="3">
         <v>8122326463</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E38" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="F38" s="1">
-        <v>0.83333333333333337</v>
+      <c r="E38" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="3">
         <v>8122355346</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E39" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="F39" s="1">
-        <v>0.83333333333333337</v>
+      <c r="E39" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
